--- a/Prototype/TESTS/GetReferences/PeopleState.xlsx
+++ b/Prototype/TESTS/GetReferences/PeopleState.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TEST\VSCode\HelloWorld\TESTS\GetReferences\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TEST\VSCode\Prototype\TESTS\GetReferences\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9AFE8DC-E081-4ED8-8ECF-DB63E3E96E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E191BC16-37EC-4A5C-B273-78D716BD10EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{368C8D5A-6B7F-4890-8AA1-E874F0DCC219}"/>
   </bookViews>
@@ -38,51 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
-    <t>ФИО</t>
-  </si>
-  <si>
-    <t>ДатаРожд</t>
-  </si>
-  <si>
-    <t>Город</t>
-  </si>
-  <si>
-    <t>Телефон</t>
-  </si>
-  <si>
-    <t>Иванов Иван Иванович</t>
-  </si>
-  <si>
-    <t>Киев</t>
-  </si>
-  <si>
-    <t>Петров Пётр Петрович</t>
-  </si>
-  <si>
-    <t>Львов</t>
-  </si>
-  <si>
-    <t>Сидорова Анна Сергеевна</t>
-  </si>
-  <si>
-    <t>Одесса</t>
-  </si>
-  <si>
-    <t>Коваленко Мария Игоревна</t>
-  </si>
-  <si>
-    <t>Харьков</t>
-  </si>
-  <si>
-    <t>Шевченко Олег Андреевич</t>
-  </si>
-  <si>
-    <t>Днепр</t>
-  </si>
-  <si>
-    <t>Горбенко Сергей Павлович</t>
-  </si>
-  <si>
     <t>+380501111111</t>
   </si>
   <si>
@@ -117,6 +72,51 @@
   </si>
   <si>
     <t>+380506666666</t>
+  </si>
+  <si>
+    <t>FIO</t>
+  </si>
+  <si>
+    <t>BirthDate</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Ivanov Ivan Ivanovich</t>
+  </si>
+  <si>
+    <t>Kyiv</t>
+  </si>
+  <si>
+    <t>Petrov Pyotr Petrovich</t>
+  </si>
+  <si>
+    <t>Lviv</t>
+  </si>
+  <si>
+    <t>Sidorova Anna Sergeevna</t>
+  </si>
+  <si>
+    <t>Odesa</t>
+  </si>
+  <si>
+    <t>Kovalenko Maria Igorevna</t>
+  </si>
+  <si>
+    <t>Kharkiv</t>
+  </si>
+  <si>
+    <t>Shevchenko Oleg Andreevich</t>
+  </si>
+  <si>
+    <t>Dnipro</t>
+  </si>
+  <si>
+    <t>Gorbenko Sergey Pavlovich</t>
   </si>
 </sst>
 </file>
@@ -574,10 +574,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ADB4BA7C-5997-48BD-BC7E-D5FE8C455408}" name="TableState" displayName="TableState" ref="A1:D7" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
   <autoFilter ref="A1:D7" xr:uid="{ADB4BA7C-5997-48BD-BC7E-D5FE8C455408}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{92C5D40C-7241-403E-8855-A4707A112AB7}" name="ФИО" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{A60CBA59-29C4-425B-BF08-B34683DEAF4D}" name="ДатаРожд" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{82D7A797-792B-4A95-BD0C-EAA3BB2B665A}" name="Город" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{AA25CC82-6C68-4057-ADDE-E6BA7D7528B2}" name="Телефон" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{92C5D40C-7241-403E-8855-A4707A112AB7}" name="FIO" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{A60CBA59-29C4-425B-BF08-B34683DEAF4D}" name="BirthDate" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{82D7A797-792B-4A95-BD0C-EAA3BB2B665A}" name="City" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{AA25CC82-6C68-4057-ADDE-E6BA7D7528B2}" name="Phone" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -903,7 +903,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -917,16 +917,16 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -940,16 +940,16 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -963,16 +963,16 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -984,18 +984,18 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1007,18 +1007,18 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1030,18 +1030,18 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1053,18 +1053,18 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
